--- a/data/sharks.xlsx
+++ b/data/sharks.xlsx
@@ -1,14 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fer/Desktop/JCU/Data analysis/Mod 4 Personal/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3764A0E6-9FB4-B04F-A24E-2B1051017C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
   <si>
     <t>CalendarYear</t>
   </si>
@@ -148,8 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +173,7 @@
       <sz val="8.25"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -182,7 +195,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFA0A0A0"/>
@@ -196,26 +215,46 @@
       <bottom style="thin">
         <color rgb="FFA0A0A0"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -481,166 +520,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:DT17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="10.43" customWidth="1"/>
-    <col min="3" max="3" width="0.43" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="0.5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="1" customWidth="1"/>
-    <col min="6" max="6" width="9.43" customWidth="1"/>
-    <col min="7" max="7" width="10.43" customWidth="1"/>
-    <col min="8" max="8" width="9.57" customWidth="1"/>
-    <col min="9" max="9" width="10.43" customWidth="1"/>
-    <col min="10" max="10" width="10.43" customWidth="1"/>
-    <col min="11" max="11" width="10.43" customWidth="1"/>
-    <col min="12" max="12" width="10.43" customWidth="1"/>
-    <col min="13" max="13" width="9.57" customWidth="1"/>
-    <col min="14" max="14" width="10.43" customWidth="1"/>
-    <col min="15" max="15" width="10.43" customWidth="1"/>
-    <col min="16" max="16" width="10.43" customWidth="1"/>
-    <col min="17" max="17" width="10.43" customWidth="1"/>
-    <col min="18" max="18" width="9.57" customWidth="1"/>
-    <col min="19" max="19" width="10.43" customWidth="1"/>
-    <col min="20" max="20" width="10.43" customWidth="1"/>
-    <col min="21" max="21" width="10.43" customWidth="1"/>
-    <col min="22" max="22" width="10.43" customWidth="1"/>
-    <col min="23" max="23" width="9.57" customWidth="1"/>
-    <col min="24" max="24" width="10.43" customWidth="1"/>
-    <col min="25" max="25" width="10.43" customWidth="1"/>
-    <col min="26" max="26" width="10.43" customWidth="1"/>
-    <col min="27" max="27" width="10.43" customWidth="1"/>
-    <col min="28" max="28" width="9.57" customWidth="1"/>
-    <col min="29" max="29" width="10.43" customWidth="1"/>
-    <col min="30" max="30" width="10.43" customWidth="1"/>
-    <col min="31" max="31" width="10.43" customWidth="1"/>
-    <col min="32" max="32" width="10.43" customWidth="1"/>
-    <col min="33" max="33" width="9.57" customWidth="1"/>
-    <col min="34" max="34" width="10.43" customWidth="1"/>
-    <col min="35" max="35" width="10.43" customWidth="1"/>
-    <col min="36" max="36" width="10.43" customWidth="1"/>
-    <col min="37" max="37" width="10.43" customWidth="1"/>
-    <col min="38" max="38" width="9.57" customWidth="1"/>
-    <col min="39" max="39" width="10.43" customWidth="1"/>
-    <col min="40" max="40" width="10.43" customWidth="1"/>
-    <col min="41" max="41" width="10.43" customWidth="1"/>
-    <col min="42" max="42" width="10.43" customWidth="1"/>
-    <col min="43" max="43" width="9.57" customWidth="1"/>
-    <col min="44" max="44" width="10.43" customWidth="1"/>
-    <col min="45" max="45" width="10.43" customWidth="1"/>
-    <col min="46" max="46" width="10.43" customWidth="1"/>
-    <col min="47" max="47" width="10.43" customWidth="1"/>
-    <col min="48" max="48" width="9.57" customWidth="1"/>
-    <col min="49" max="49" width="10.43" customWidth="1"/>
-    <col min="50" max="50" width="10.43" customWidth="1"/>
-    <col min="51" max="51" width="10.43" customWidth="1"/>
-    <col min="52" max="52" width="10.43" customWidth="1"/>
-    <col min="53" max="53" width="9.57" customWidth="1"/>
-    <col min="54" max="54" width="10.43" customWidth="1"/>
-    <col min="55" max="55" width="10.43" customWidth="1"/>
-    <col min="56" max="56" width="10.43" customWidth="1"/>
-    <col min="57" max="57" width="10.43" customWidth="1"/>
-    <col min="58" max="58" width="9.57" customWidth="1"/>
-    <col min="59" max="59" width="10.43" customWidth="1"/>
-    <col min="60" max="60" width="10.43" customWidth="1"/>
-    <col min="61" max="61" width="10.43" customWidth="1"/>
-    <col min="62" max="62" width="10.43" customWidth="1"/>
-    <col min="63" max="63" width="9.57" customWidth="1"/>
-    <col min="64" max="64" width="10.43" customWidth="1"/>
-    <col min="65" max="65" width="10.43" customWidth="1"/>
-    <col min="66" max="66" width="10.43" customWidth="1"/>
-    <col min="67" max="67" width="10.43" customWidth="1"/>
-    <col min="68" max="68" width="9.57" customWidth="1"/>
-    <col min="69" max="69" width="10.43" customWidth="1"/>
-    <col min="70" max="70" width="10.43" customWidth="1"/>
-    <col min="71" max="71" width="10.43" customWidth="1"/>
-    <col min="72" max="72" width="10.43" customWidth="1"/>
-    <col min="73" max="73" width="9.57" customWidth="1"/>
-    <col min="74" max="74" width="10.43" customWidth="1"/>
-    <col min="75" max="75" width="10.43" customWidth="1"/>
-    <col min="76" max="76" width="10.43" customWidth="1"/>
-    <col min="77" max="77" width="10.43" customWidth="1"/>
-    <col min="78" max="78" width="9.57" customWidth="1"/>
-    <col min="79" max="79" width="10.43" customWidth="1"/>
-    <col min="80" max="80" width="10.43" customWidth="1"/>
-    <col min="81" max="81" width="10.43" customWidth="1"/>
-    <col min="82" max="82" width="10.43" customWidth="1"/>
-    <col min="83" max="83" width="9.57" customWidth="1"/>
-    <col min="84" max="84" width="10.43" customWidth="1"/>
-    <col min="85" max="85" width="10.43" customWidth="1"/>
-    <col min="86" max="86" width="10.43" customWidth="1"/>
-    <col min="87" max="87" width="10.43" customWidth="1"/>
-    <col min="88" max="88" width="9.57" customWidth="1"/>
-    <col min="89" max="89" width="10.43" customWidth="1"/>
-    <col min="90" max="90" width="10.43" customWidth="1"/>
-    <col min="91" max="91" width="10.43" customWidth="1"/>
-    <col min="92" max="92" width="10.43" customWidth="1"/>
-    <col min="93" max="93" width="9.57" customWidth="1"/>
-    <col min="94" max="94" width="10.43" customWidth="1"/>
-    <col min="95" max="95" width="10.43" customWidth="1"/>
-    <col min="96" max="96" width="10.43" customWidth="1"/>
-    <col min="97" max="97" width="10.43" customWidth="1"/>
-    <col min="98" max="98" width="9.57" customWidth="1"/>
-    <col min="99" max="99" width="10.43" customWidth="1"/>
-    <col min="100" max="100" width="10.43" customWidth="1"/>
-    <col min="101" max="101" width="10.43" customWidth="1"/>
-    <col min="102" max="102" width="10.43" customWidth="1"/>
-    <col min="103" max="103" width="9.57" customWidth="1"/>
-    <col min="104" max="104" width="10.43" customWidth="1"/>
-    <col min="105" max="105" width="10.43" customWidth="1"/>
-    <col min="106" max="106" width="10.43" customWidth="1"/>
-    <col min="107" max="107" width="10.43" customWidth="1"/>
-    <col min="108" max="108" width="9.57" customWidth="1"/>
-    <col min="109" max="109" width="10.43" customWidth="1"/>
-    <col min="110" max="110" width="10.43" customWidth="1"/>
-    <col min="111" max="111" width="10.43" customWidth="1"/>
-    <col min="112" max="112" width="10.43" customWidth="1"/>
-    <col min="113" max="113" width="9.57" customWidth="1"/>
-    <col min="114" max="114" width="10.43" customWidth="1"/>
-    <col min="115" max="115" width="10.43" customWidth="1"/>
-    <col min="116" max="116" width="10.43" customWidth="1"/>
-    <col min="117" max="117" width="10.43" customWidth="1"/>
-    <col min="118" max="118" width="9.57" customWidth="1"/>
-    <col min="119" max="119" width="10.43" customWidth="1"/>
-    <col min="120" max="120" width="10.43" customWidth="1"/>
-    <col min="121" max="121" width="10.43" customWidth="1"/>
-    <col min="122" max="122" width="10.43" customWidth="1"/>
-    <col min="123" max="123" width="9.57" customWidth="1"/>
-    <col min="124" max="124" width="10.43" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="9.5" customWidth="1"/>
+    <col min="19" max="22" width="10.5" customWidth="1"/>
+    <col min="23" max="23" width="9.5" customWidth="1"/>
+    <col min="24" max="27" width="10.5" customWidth="1"/>
+    <col min="28" max="28" width="9.5" customWidth="1"/>
+    <col min="29" max="32" width="10.5" customWidth="1"/>
+    <col min="33" max="33" width="9.5" customWidth="1"/>
+    <col min="34" max="37" width="10.5" customWidth="1"/>
+    <col min="38" max="38" width="9.5" customWidth="1"/>
+    <col min="39" max="42" width="10.5" customWidth="1"/>
+    <col min="43" max="43" width="9.5" customWidth="1"/>
+    <col min="44" max="47" width="10.5" customWidth="1"/>
+    <col min="48" max="48" width="9.5" customWidth="1"/>
+    <col min="49" max="52" width="10.5" customWidth="1"/>
+    <col min="53" max="53" width="9.5" customWidth="1"/>
+    <col min="54" max="57" width="10.5" customWidth="1"/>
+    <col min="58" max="58" width="9.5" customWidth="1"/>
+    <col min="59" max="62" width="10.5" customWidth="1"/>
+    <col min="63" max="63" width="9.5" customWidth="1"/>
+    <col min="64" max="67" width="10.5" customWidth="1"/>
+    <col min="68" max="68" width="9.5" customWidth="1"/>
+    <col min="69" max="72" width="10.5" customWidth="1"/>
+    <col min="73" max="73" width="9.5" customWidth="1"/>
+    <col min="74" max="77" width="10.5" customWidth="1"/>
+    <col min="78" max="78" width="9.5" customWidth="1"/>
+    <col min="79" max="82" width="10.5" customWidth="1"/>
+    <col min="83" max="83" width="9.5" customWidth="1"/>
+    <col min="84" max="87" width="10.5" customWidth="1"/>
+    <col min="88" max="88" width="9.5" customWidth="1"/>
+    <col min="89" max="92" width="10.5" customWidth="1"/>
+    <col min="93" max="93" width="9.5" customWidth="1"/>
+    <col min="94" max="97" width="10.5" customWidth="1"/>
+    <col min="98" max="98" width="9.5" customWidth="1"/>
+    <col min="99" max="102" width="10.5" customWidth="1"/>
+    <col min="103" max="103" width="9.5" customWidth="1"/>
+    <col min="104" max="107" width="10.5" customWidth="1"/>
+    <col min="108" max="108" width="9.5" customWidth="1"/>
+    <col min="109" max="112" width="10.5" customWidth="1"/>
+    <col min="113" max="113" width="9.5" customWidth="1"/>
+    <col min="114" max="117" width="10.5" customWidth="1"/>
+    <col min="118" max="118" width="9.5" customWidth="1"/>
+    <col min="119" max="122" width="10.5" customWidth="1"/>
+    <col min="123" max="123" width="9.5" customWidth="1"/>
+    <col min="124" max="124" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c t="s" r="B1" s="1">
+    <row r="1" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c t="s" r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2">
         <v>2001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>2001</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
         <v>2001</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="2">
         <v>2001</v>
       </c>
-      <c t="s" r="H2" s="1">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="2">
@@ -655,7 +629,7 @@
       <c r="L2" s="2">
         <v>2002</v>
       </c>
-      <c t="s" r="M2" s="1">
+      <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="2">
@@ -670,7 +644,7 @@
       <c r="Q2" s="2">
         <v>2003</v>
       </c>
-      <c t="s" r="R2" s="1">
+      <c r="R2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="S2" s="2">
@@ -685,7 +659,7 @@
       <c r="V2" s="2">
         <v>2004</v>
       </c>
-      <c t="s" r="W2" s="1">
+      <c r="W2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="X2" s="2">
@@ -700,7 +674,7 @@
       <c r="AA2" s="2">
         <v>2005</v>
       </c>
-      <c t="s" r="AB2" s="1">
+      <c r="AB2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AC2" s="2">
@@ -715,7 +689,7 @@
       <c r="AF2" s="2">
         <v>2006</v>
       </c>
-      <c t="s" r="AG2" s="1">
+      <c r="AG2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AH2" s="2">
@@ -730,7 +704,7 @@
       <c r="AK2" s="2">
         <v>2007</v>
       </c>
-      <c t="s" r="AL2" s="1">
+      <c r="AL2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AM2" s="2">
@@ -745,7 +719,7 @@
       <c r="AP2" s="2">
         <v>2008</v>
       </c>
-      <c t="s" r="AQ2" s="1">
+      <c r="AQ2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AR2" s="2">
@@ -760,7 +734,7 @@
       <c r="AU2" s="2">
         <v>2009</v>
       </c>
-      <c t="s" r="AV2" s="1">
+      <c r="AV2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AW2" s="2">
@@ -775,7 +749,7 @@
       <c r="AZ2" s="2">
         <v>2010</v>
       </c>
-      <c t="s" r="BA2" s="1">
+      <c r="BA2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="BB2" s="2">
@@ -790,7 +764,7 @@
       <c r="BE2" s="2">
         <v>2011</v>
       </c>
-      <c t="s" r="BF2" s="1">
+      <c r="BF2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="BG2" s="2">
@@ -805,7 +779,7 @@
       <c r="BJ2" s="2">
         <v>2012</v>
       </c>
-      <c t="s" r="BK2" s="1">
+      <c r="BK2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="BL2" s="2">
@@ -820,7 +794,7 @@
       <c r="BO2" s="2">
         <v>2013</v>
       </c>
-      <c t="s" r="BP2" s="1">
+      <c r="BP2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="BQ2" s="2">
@@ -835,7 +809,7 @@
       <c r="BT2" s="2">
         <v>2014</v>
       </c>
-      <c t="s" r="BU2" s="1">
+      <c r="BU2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="BV2" s="2">
@@ -850,7 +824,7 @@
       <c r="BY2" s="2">
         <v>2015</v>
       </c>
-      <c t="s" r="BZ2" s="1">
+      <c r="BZ2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="CA2" s="2">
@@ -865,7 +839,7 @@
       <c r="CD2" s="2">
         <v>2016</v>
       </c>
-      <c t="s" r="CE2" s="1">
+      <c r="CE2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="CF2" s="2">
@@ -880,7 +854,7 @@
       <c r="CI2" s="2">
         <v>2017</v>
       </c>
-      <c t="s" r="CJ2" s="1">
+      <c r="CJ2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="CK2" s="2">
@@ -895,7 +869,7 @@
       <c r="CN2" s="2">
         <v>2018</v>
       </c>
-      <c t="s" r="CO2" s="1">
+      <c r="CO2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="CP2" s="2">
@@ -910,7 +884,7 @@
       <c r="CS2" s="2">
         <v>2019</v>
       </c>
-      <c t="s" r="CT2" s="1">
+      <c r="CT2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="CU2" s="2">
@@ -925,7 +899,7 @@
       <c r="CX2" s="2">
         <v>2020</v>
       </c>
-      <c t="s" r="CY2" s="1">
+      <c r="CY2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="CZ2" s="2">
@@ -940,7 +914,7 @@
       <c r="DC2" s="2">
         <v>2021</v>
       </c>
-      <c t="s" r="DD2" s="1">
+      <c r="DD2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="DE2" s="2">
@@ -955,7 +929,7 @@
       <c r="DH2" s="2">
         <v>2022</v>
       </c>
-      <c t="s" r="DI2" s="1">
+      <c r="DI2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="DJ2" s="2">
@@ -970,7 +944,7 @@
       <c r="DM2" s="2">
         <v>2023</v>
       </c>
-      <c t="s" r="DN2" s="1">
+      <c r="DN2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="DO2" s="2">
@@ -985,342 +959,342 @@
       <c r="DR2" s="2">
         <v>2024</v>
       </c>
-      <c t="s" r="DS2" s="1">
+      <c r="DS2" s="4" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="DT2" s="2">
+      <c r="DT2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c t="s" r="A3" s="1">
+    <row r="3" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="B3" s="2">
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="C3" s="2">
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2"/>
-      <c t="s" r="E3" s="2">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2"/>
-      <c t="s" r="G3" s="2">
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1"/>
-      <c t="s" r="I3" s="2">
+      <c r="H3" s="4"/>
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="J3" s="2">
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="K3" s="2">
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="L3" s="2">
+      <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="1"/>
-      <c t="s" r="N3" s="2">
+      <c r="M3" s="4"/>
+      <c r="N3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="O3" s="2">
+      <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="P3" s="2">
+      <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="Q3" s="2">
+      <c r="Q3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="1"/>
-      <c t="s" r="S3" s="2">
+      <c r="R3" s="4"/>
+      <c r="S3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="T3" s="2">
+      <c r="T3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="U3" s="2">
+      <c r="U3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="V3" s="2">
+      <c r="V3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="1"/>
-      <c t="s" r="X3" s="2">
+      <c r="W3" s="4"/>
+      <c r="X3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="Y3" s="2">
+      <c r="Y3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="Z3" s="2">
+      <c r="Z3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="AA3" s="2">
+      <c r="AA3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="1"/>
-      <c t="s" r="AC3" s="2">
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="AD3" s="2">
+      <c r="AD3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="AE3" s="2">
+      <c r="AE3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="AF3" s="2">
+      <c r="AF3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="1"/>
-      <c t="s" r="AH3" s="2">
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="AI3" s="2">
+      <c r="AI3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="AJ3" s="2">
+      <c r="AJ3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="AK3" s="2">
+      <c r="AK3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AL3" s="1"/>
-      <c t="s" r="AM3" s="2">
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="AN3" s="2">
+      <c r="AN3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="AO3" s="2">
+      <c r="AO3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="AP3" s="2">
+      <c r="AP3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AQ3" s="1"/>
-      <c t="s" r="AR3" s="2">
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="AS3" s="2">
+      <c r="AS3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="AT3" s="2">
+      <c r="AT3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="AU3" s="2">
+      <c r="AU3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AV3" s="1"/>
-      <c t="s" r="AW3" s="2">
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="AX3" s="2">
+      <c r="AX3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="AY3" s="2">
+      <c r="AY3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="AZ3" s="2">
+      <c r="AZ3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="1"/>
-      <c t="s" r="BB3" s="2">
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="BC3" s="2">
+      <c r="BC3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="BD3" s="2">
+      <c r="BD3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="BE3" s="2">
+      <c r="BE3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BF3" s="1"/>
-      <c t="s" r="BG3" s="2">
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="BH3" s="2">
+      <c r="BH3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="BI3" s="2">
+      <c r="BI3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="BJ3" s="2">
+      <c r="BJ3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BK3" s="1"/>
-      <c t="s" r="BL3" s="2">
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="BM3" s="2">
+      <c r="BM3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="BN3" s="2">
+      <c r="BN3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="BO3" s="2">
+      <c r="BO3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BP3" s="1"/>
-      <c t="s" r="BQ3" s="2">
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="BR3" s="2">
+      <c r="BR3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="BS3" s="2">
+      <c r="BS3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="BT3" s="2">
+      <c r="BT3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BU3" s="1"/>
-      <c t="s" r="BV3" s="2">
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="BW3" s="2">
+      <c r="BW3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="BX3" s="2">
+      <c r="BX3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="BY3" s="2">
+      <c r="BY3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BZ3" s="1"/>
-      <c t="s" r="CA3" s="2">
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="CB3" s="2">
+      <c r="CB3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="CC3" s="2">
+      <c r="CC3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="CD3" s="2">
+      <c r="CD3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CE3" s="1"/>
-      <c t="s" r="CF3" s="2">
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="CG3" s="2">
+      <c r="CG3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="CH3" s="2">
+      <c r="CH3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="CI3" s="2">
+      <c r="CI3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CJ3" s="1"/>
-      <c t="s" r="CK3" s="2">
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="CL3" s="2">
+      <c r="CL3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="CM3" s="2">
+      <c r="CM3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="CN3" s="2">
+      <c r="CN3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CO3" s="1"/>
-      <c t="s" r="CP3" s="2">
+      <c r="CO3" s="4"/>
+      <c r="CP3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="CQ3" s="2">
+      <c r="CQ3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="CR3" s="2">
+      <c r="CR3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="CS3" s="2">
+      <c r="CS3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CT3" s="1"/>
-      <c t="s" r="CU3" s="2">
+      <c r="CT3" s="4"/>
+      <c r="CU3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="CV3" s="2">
+      <c r="CV3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="CW3" s="2">
+      <c r="CW3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="CX3" s="2">
+      <c r="CX3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CY3" s="1"/>
-      <c t="s" r="CZ3" s="2">
+      <c r="CY3" s="4"/>
+      <c r="CZ3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="DA3" s="2">
+      <c r="DA3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="DB3" s="2">
+      <c r="DB3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="DC3" s="2">
+      <c r="DC3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="DD3" s="1"/>
-      <c t="s" r="DE3" s="2">
+      <c r="DD3" s="4"/>
+      <c r="DE3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="DF3" s="2">
+      <c r="DF3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="DG3" s="2">
+      <c r="DG3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="DH3" s="2">
+      <c r="DH3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="DI3" s="1"/>
-      <c t="s" r="DJ3" s="2">
+      <c r="DI3" s="4"/>
+      <c r="DJ3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="DK3" s="2">
+      <c r="DK3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="DL3" s="2">
+      <c r="DL3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="DM3" s="2">
+      <c r="DM3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="DN3" s="1"/>
-      <c t="s" r="DO3" s="2">
+      <c r="DN3" s="4"/>
+      <c r="DO3" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="DP3" s="2">
+      <c r="DP3" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="DQ3" s="2">
+      <c r="DQ3" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="DR3" s="2">
+      <c r="DR3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="DS3" s="1"/>
-      <c r="DT3" s="2"/>
+      <c r="DS3" s="4"/>
+      <c r="DT3" s="5"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c t="s" r="A4" s="2">
+    <row r="4" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1478,19 +1452,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c t="s" r="A5" s="2">
+    <row r="5" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>62</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="3">
         <v>12</v>
       </c>
@@ -1780,21 +1754,21 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c t="s" r="A6" s="2">
+    <row r="6" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>16</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>79</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="3">
         <v>4</v>
       </c>
@@ -2072,19 +2046,19 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c t="s" r="A7" s="2">
+    <row r="7" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
         <v>87</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
         <v>90</v>
@@ -2376,17 +2350,17 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c t="s" r="A8" s="2">
+    <row r="8" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>32</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
         <v>32</v>
@@ -2632,21 +2606,21 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c t="s" r="A9" s="2">
+    <row r="9" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="3">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>34</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
         <v>85</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="3">
         <v>27</v>
       </c>
@@ -3000,19 +2974,19 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c t="s" r="A10" s="2">
+    <row r="10" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>36</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
         <v>134</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="3">
         <v>2</v>
       </c>
@@ -3298,17 +3272,17 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c t="s" r="A11" s="2">
+    <row r="11" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="3">
         <v>6</v>
       </c>
@@ -3594,21 +3568,21 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c t="s" r="A12" s="2">
+    <row r="12" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
         <v>35</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="3">
         <v>2</v>
       </c>
@@ -3958,21 +3932,21 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c t="s" r="A13" s="2">
+    <row r="13" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>31</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
         <v>76</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="3">
         <v>6</v>
       </c>
@@ -4318,15 +4292,15 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c t="s" r="A14" s="2">
+    <row r="14" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -4514,21 +4488,21 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c t="s" r="A15" s="2">
+    <row r="15" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>7</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
         <v>35</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="3">
         <v>4</v>
       </c>
@@ -4806,21 +4780,21 @@
         <v>617</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c t="s" r="A16" s="2">
+    <row r="16" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
         <v>89</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="3">
         <v>3</v>
       </c>
@@ -5116,21 +5090,21 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c t="s" r="A17" s="2">
+    <row r="17" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>149</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
         <v>734</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="3">
         <v>66</v>
       </c>
@@ -5488,65 +5462,65 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CY2:CY3"/>
-    <mergeCell ref="DD2:DD3"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="DI2:DI3"/>
     <mergeCell ref="DN2:DN3"/>
     <mergeCell ref="DS2:DS3"/>
     <mergeCell ref="DT2:DT3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CY2:CY3"/>
+    <mergeCell ref="DD2:DD3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/data/sharks.xlsx
+++ b/data/sharks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fer/Desktop/JCU/Data analysis/Mod 4 Personal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3764A0E6-9FB4-B04F-A24E-2B1051017C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1ED1A-BD16-8E41-968F-735975BAC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
   </sheetPr>
   <dimension ref="A1:DT17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CN1" workbookViewId="0">
+      <selection activeCell="CX41" sqref="CX41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5525,7 +5525,7 @@
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:DT17" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:DT17 A1:DC1 DE1:DT1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/sharks.xlsx
+++ b/data/sharks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fer/Desktop/JCU/Data analysis/Mod 4 Personal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1ED1A-BD16-8E41-968F-735975BAC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2D39BA-82D4-B049-943F-20015DC08681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
-  <si>
-    <t>CalendarYear</t>
-  </si>
-  <si>
-    <t>SpeciesGroup</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
   <si>
     <t>2001 Total</t>
   </si>
@@ -232,14 +226,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,11 +520,11 @@
   </sheetPr>
   <dimension ref="A1:DT17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CN1" workbookViewId="0">
-      <selection activeCell="CX41" sqref="CX41"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -590,32 +584,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2">
         <v>2001</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>2001</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
         <v>2001</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="2">
         <v>2001</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
+      <c r="H2" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>2002</v>
@@ -629,8 +619,8 @@
       <c r="L2" s="2">
         <v>2002</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>3</v>
+      <c r="M2" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="N2" s="2">
         <v>2003</v>
@@ -644,8 +634,8 @@
       <c r="Q2" s="2">
         <v>2003</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>4</v>
+      <c r="R2" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="S2" s="2">
         <v>2004</v>
@@ -659,8 +649,8 @@
       <c r="V2" s="2">
         <v>2004</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>5</v>
+      <c r="W2" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="X2" s="2">
         <v>2005</v>
@@ -674,8 +664,8 @@
       <c r="AA2" s="2">
         <v>2005</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>6</v>
+      <c r="AB2" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="AC2" s="2">
         <v>2006</v>
@@ -689,8 +679,8 @@
       <c r="AF2" s="2">
         <v>2006</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>7</v>
+      <c r="AG2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="AH2" s="2">
         <v>2007</v>
@@ -704,8 +694,8 @@
       <c r="AK2" s="2">
         <v>2007</v>
       </c>
-      <c r="AL2" s="4" t="s">
-        <v>8</v>
+      <c r="AL2" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="AM2" s="2">
         <v>2008</v>
@@ -719,8 +709,8 @@
       <c r="AP2" s="2">
         <v>2008</v>
       </c>
-      <c r="AQ2" s="4" t="s">
-        <v>9</v>
+      <c r="AQ2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="AR2" s="2">
         <v>2009</v>
@@ -734,8 +724,8 @@
       <c r="AU2" s="2">
         <v>2009</v>
       </c>
-      <c r="AV2" s="4" t="s">
-        <v>10</v>
+      <c r="AV2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="AW2" s="2">
         <v>2010</v>
@@ -749,8 +739,8 @@
       <c r="AZ2" s="2">
         <v>2010</v>
       </c>
-      <c r="BA2" s="4" t="s">
-        <v>11</v>
+      <c r="BA2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="BB2" s="2">
         <v>2011</v>
@@ -764,8 +754,8 @@
       <c r="BE2" s="2">
         <v>2011</v>
       </c>
-      <c r="BF2" s="4" t="s">
-        <v>12</v>
+      <c r="BF2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="BG2" s="2">
         <v>2012</v>
@@ -779,8 +769,8 @@
       <c r="BJ2" s="2">
         <v>2012</v>
       </c>
-      <c r="BK2" s="4" t="s">
-        <v>13</v>
+      <c r="BK2" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="BL2" s="2">
         <v>2013</v>
@@ -794,8 +784,8 @@
       <c r="BO2" s="2">
         <v>2013</v>
       </c>
-      <c r="BP2" s="4" t="s">
-        <v>14</v>
+      <c r="BP2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="BQ2" s="2">
         <v>2014</v>
@@ -809,8 +799,8 @@
       <c r="BT2" s="2">
         <v>2014</v>
       </c>
-      <c r="BU2" s="4" t="s">
-        <v>15</v>
+      <c r="BU2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="BV2" s="2">
         <v>2015</v>
@@ -824,8 +814,8 @@
       <c r="BY2" s="2">
         <v>2015</v>
       </c>
-      <c r="BZ2" s="4" t="s">
-        <v>16</v>
+      <c r="BZ2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="CA2" s="2">
         <v>2016</v>
@@ -839,8 +829,8 @@
       <c r="CD2" s="2">
         <v>2016</v>
       </c>
-      <c r="CE2" s="4" t="s">
-        <v>17</v>
+      <c r="CE2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="CF2" s="2">
         <v>2017</v>
@@ -854,8 +844,8 @@
       <c r="CI2" s="2">
         <v>2017</v>
       </c>
-      <c r="CJ2" s="4" t="s">
-        <v>18</v>
+      <c r="CJ2" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="CK2" s="2">
         <v>2018</v>
@@ -869,8 +859,8 @@
       <c r="CN2" s="2">
         <v>2018</v>
       </c>
-      <c r="CO2" s="4" t="s">
-        <v>19</v>
+      <c r="CO2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="CP2" s="2">
         <v>2019</v>
@@ -884,8 +874,8 @@
       <c r="CS2" s="2">
         <v>2019</v>
       </c>
-      <c r="CT2" s="4" t="s">
-        <v>20</v>
+      <c r="CT2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="CU2" s="2">
         <v>2020</v>
@@ -899,8 +889,8 @@
       <c r="CX2" s="2">
         <v>2020</v>
       </c>
-      <c r="CY2" s="4" t="s">
-        <v>21</v>
+      <c r="CY2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="CZ2" s="2">
         <v>2021</v>
@@ -914,8 +904,8 @@
       <c r="DC2" s="2">
         <v>2021</v>
       </c>
-      <c r="DD2" s="4" t="s">
-        <v>22</v>
+      <c r="DD2" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="DE2" s="2">
         <v>2022</v>
@@ -929,8 +919,8 @@
       <c r="DH2" s="2">
         <v>2022</v>
       </c>
-      <c r="DI2" s="4" t="s">
-        <v>23</v>
+      <c r="DI2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="DJ2" s="2">
         <v>2023</v>
@@ -944,8 +934,8 @@
       <c r="DM2" s="2">
         <v>2023</v>
       </c>
-      <c r="DN2" s="4" t="s">
-        <v>24</v>
+      <c r="DN2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="DO2" s="2">
         <v>2024</v>
@@ -959,342 +949,342 @@
       <c r="DR2" s="2">
         <v>2024</v>
       </c>
-      <c r="DS2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="DT2" s="5" t="s">
-        <v>26</v>
+      <c r="DS2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DT2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="5"/>
       <c r="S3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="4"/>
+      <c r="W3" s="5"/>
       <c r="X3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="4"/>
+      <c r="AB3" s="5"/>
       <c r="AC3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG3" s="4"/>
+      <c r="AG3" s="5"/>
       <c r="AH3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AJ3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL3" s="4"/>
+      <c r="AL3" s="5"/>
       <c r="AM3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AO3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ3" s="4"/>
+      <c r="AQ3" s="5"/>
       <c r="AR3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AT3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV3" s="4"/>
+      <c r="AV3" s="5"/>
       <c r="AW3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AY3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA3" s="4"/>
+      <c r="BA3" s="5"/>
       <c r="BB3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BD3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF3" s="4"/>
+      <c r="BF3" s="5"/>
       <c r="BG3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BI3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK3" s="4"/>
+      <c r="BK3" s="5"/>
       <c r="BL3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BN3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BO3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BP3" s="4"/>
+      <c r="BP3" s="5"/>
       <c r="BQ3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="BR3" s="2" t="s">
+      <c r="BT3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BS3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BT3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU3" s="4"/>
+      <c r="BU3" s="5"/>
       <c r="BV3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="BW3" s="2" t="s">
+      <c r="BY3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BX3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BY3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BZ3" s="4"/>
+      <c r="BZ3" s="5"/>
       <c r="CA3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CD3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="CC3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CD3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CE3" s="4"/>
+      <c r="CE3" s="5"/>
       <c r="CF3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CH3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CI3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="CH3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CI3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CJ3" s="4"/>
+      <c r="CJ3" s="5"/>
       <c r="CK3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CM3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CN3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="CM3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CN3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CO3" s="4"/>
+      <c r="CO3" s="5"/>
       <c r="CP3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CR3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="CQ3" s="2" t="s">
+      <c r="CS3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="CR3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CS3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CT3" s="4"/>
+      <c r="CT3" s="5"/>
       <c r="CU3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CW3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="CV3" s="2" t="s">
+      <c r="CX3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="CW3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CX3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CY3" s="4"/>
+      <c r="CY3" s="5"/>
       <c r="CZ3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="DA3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="DB3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="DA3" s="2" t="s">
+      <c r="DC3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="DB3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="DC3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="DD3" s="4"/>
+      <c r="DD3" s="5"/>
       <c r="DE3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="DF3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="DG3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="DF3" s="2" t="s">
+      <c r="DH3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="DG3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="DH3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="DI3" s="4"/>
+      <c r="DI3" s="5"/>
       <c r="DJ3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="DK3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="DL3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="DK3" s="2" t="s">
+      <c r="DM3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="DL3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="DM3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="DN3" s="4"/>
+      <c r="DN3" s="5"/>
       <c r="DO3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="DP3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="DQ3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="DP3" s="2" t="s">
+      <c r="DR3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="DQ3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="DR3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="DS3" s="4"/>
-      <c r="DT3" s="5"/>
+      <c r="DS3" s="5"/>
+      <c r="DT3" s="6"/>
     </row>
     <row r="4" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1454,17 +1444,17 @@
     </row>
     <row r="5" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <v>62</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="3">
         <v>12</v>
       </c>
@@ -1756,19 +1746,19 @@
     </row>
     <row r="6" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>16</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>79</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="3">
         <v>4</v>
       </c>
@@ -2048,17 +2038,17 @@
     </row>
     <row r="7" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="6">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>87</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
         <v>90</v>
@@ -2352,15 +2342,15 @@
     </row>
     <row r="8" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
         <v>32</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
         <v>32</v>
@@ -2608,19 +2598,19 @@
     </row>
     <row r="9" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>34</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
         <v>85</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="3">
         <v>27</v>
       </c>
@@ -2976,17 +2966,17 @@
     </row>
     <row r="10" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>36</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
         <v>134</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="3">
         <v>2</v>
       </c>
@@ -3274,15 +3264,15 @@
     </row>
     <row r="11" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
         <v>20</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="3">
         <v>6</v>
       </c>
@@ -3570,19 +3560,19 @@
     </row>
     <row r="12" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>6</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
         <v>35</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="3">
         <v>2</v>
       </c>
@@ -3934,19 +3924,19 @@
     </row>
     <row r="13" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>31</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
         <v>76</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="3">
         <v>6</v>
       </c>
@@ -4294,13 +4284,13 @@
     </row>
     <row r="14" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -4490,19 +4480,19 @@
     </row>
     <row r="15" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>7</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
         <v>35</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="3">
         <v>4</v>
       </c>
@@ -4782,19 +4772,19 @@
     </row>
     <row r="16" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>15</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
         <v>89</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="3">
         <v>3</v>
       </c>
@@ -5092,19 +5082,19 @@
     </row>
     <row r="17" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>149</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
         <v>734</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="3">
         <v>66</v>
       </c>
@@ -5462,34 +5452,21 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BF2:BF3"/>
     <mergeCell ref="DI2:DI3"/>
     <mergeCell ref="DN2:DN3"/>
     <mergeCell ref="DS2:DS3"/>
@@ -5506,26 +5483,39 @@
     <mergeCell ref="BU2:BU3"/>
     <mergeCell ref="BZ2:BZ3"/>
     <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:DT17 A1:DC1 DE1:DT1" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:DT17 A1 DE1:DT1 F1:DC1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>